--- a/biology/Médecine/Acide_folinique/Acide_folinique.xlsx
+++ b/biology/Médecine/Acide_folinique/Acide_folinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide folinique est le métabolite actif de l'acide folique. Il est notamment utilisé en adjuvant des chimiothérapies impliquant certains produits comme le fluorouracile ou utilisé comme chimioprotection pour le méthotrexate, et est en général administré sous forme de folinate de calcium.
 </t>
@@ -511,7 +523,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide folinique se transforme en intracellulaire en 5-10 méthényl THF qui donne à son tour le 5-10 méthylène THF par une réaction réversible. Ce dernier constitue une coenzyme nécessaire de Thymidylate synthase, enzyme qui produit de la dTMP à partir du dUMP.
 </t>
@@ -542,7 +556,9 @@
           <t>Usage thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une des indications thérapeutiques de l’acide folinique concerne la toxoplasmose congénitale (fœtopathie) : le folinate de calcium est utilisé dans le traitement des contaminations toxoplasmiques chez la femme enceinte après 36 semaines de grossesse. Il est associé au Fansidar (sulfadoxine/pyrimethamine (en)) jusqu'à l'accouchement.
 Il peut également être utilisé en association avec le méthotrexate dans le traitement médical de la grossesse extra-utérine.
@@ -577,9 +593,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide folinique fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide folinique fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
